--- a/main/.data/byPair/swing_trading/[2019][HuyNguyen]-TradingView.xlsx
+++ b/main/.data/byPair/swing_trading/[2019][HuyNguyen]-TradingView.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="USDBTC" sheetId="1" r:id="rId1"/>
+    <sheet name="PAIR2" sheetId="1" r:id="rId1"/>
+    <sheet name="VNDUSD" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>MONTH</t>
   </si>
@@ -55,19 +56,40 @@
     <t>SUM</t>
   </si>
   <si>
-    <t>08:18:34.341977</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>LINK 4 HOURS</t>
-  </si>
-  <si>
-    <t>LINK PRE 4 HOURS</t>
-  </si>
-  <si>
-    <t>strategy 2 comment</t>
+    <t>14:57:56.200590</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>link 1</t>
+  </si>
+  <si>
+    <t>link 2</t>
+  </si>
+  <si>
+    <t>link 3</t>
+  </si>
+  <si>
+    <t>link 4</t>
+  </si>
+  <si>
+    <t>link 5</t>
+  </si>
+  <si>
+    <t>this is my comment</t>
+  </si>
+  <si>
+    <t>14:58:01.136710</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>14:57:30.000793</t>
+  </si>
+  <si>
+    <t>14:57:03.901108</t>
   </si>
 </sst>
 </file>
@@ -417,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,14 +491,155 @@
       </c>
     </row>
     <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1">
+        <v>83</v>
+      </c>
+      <c r="M2" s="1">
+        <f>SUM(J2:J3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1">
+        <v>803</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="M2:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="9" width="35.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
@@ -488,24 +651,65 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1">
         <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1">
+        <v>603</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1">
-        <v>13</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1">
+        <v>403</v>
+      </c>
+      <c r="M3" s="1">
         <v>3</v>
       </c>
     </row>
